--- a/test.xlsx
+++ b/test.xlsx
@@ -27,21 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Cash</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Profit</t>
   </si>
   <si>
-    <t>May</t>
+    <t>Bitcoin</t>
   </si>
   <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
+    <t>Cashflow</t>
   </si>
 </sst>
 </file>
@@ -77,8 +71,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,42 +351,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1">
+        <v>42856</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42887</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42917</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42948</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <f>B2</f>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>300</v>
+        <f>C2</f>
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <f>D2</f>
+        <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>5000</v>
@@ -400,7 +404,27 @@
         <v>6000</v>
       </c>
       <c r="D3">
-        <v>7000</v>
+        <v>8000</v>
+      </c>
+      <c r="E3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>-9</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Profit</t>
   </si>
@@ -36,6 +36,18 @@
   </si>
   <si>
     <t>Cashflow</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -354,60 +366,61 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
-        <v>42856</v>
+        <v>43221</v>
       </c>
       <c r="C1" s="1">
-        <v>42887</v>
+        <v>43221</v>
       </c>
       <c r="D1" s="1">
-        <v>42917</v>
+        <v>43221</v>
       </c>
       <c r="E1" s="1">
-        <v>42948</v>
+        <v>43221</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="str">
+        <f>B3</f>
+        <v>D</v>
+      </c>
+      <c r="C2" t="str">
         <f>B2</f>
-        <v>100</v>
-      </c>
-      <c r="D2">
+        <v>D</v>
+      </c>
+      <c r="D2" t="str">
         <f>C2</f>
-        <v>100</v>
-      </c>
-      <c r="E2">
+        <v>D</v>
+      </c>
+      <c r="E2" t="str">
         <f>D2</f>
-        <v>100</v>
+        <v>D</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>5000</v>
-      </c>
-      <c r="C3">
-        <v>6000</v>
-      </c>
-      <c r="D3">
-        <v>8000</v>
-      </c>
-      <c r="E3">
-        <v>9000</v>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">

--- a/test.xlsx
+++ b/test.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13760" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Profit</t>
   </si>
@@ -48,6 +49,9 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -365,7 +369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -443,4 +447,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>